--- a/Splendid_Alfonsino/SA_Species_Summary_Data.xlsx
+++ b/Splendid_Alfonsino/SA_Species_Summary_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10040153\Documents\Github\NPFC_Species_Summary\Splendid_Alfonsino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928E659C-202B-4AD2-8B26-19F454C525FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA47CC56-B143-4404-9D22-8F83122C25D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BFE46DB1-BA3B-4CB7-B44C-BBE749A373D2}"/>
+    <workbookView xWindow="3330" yWindow="3330" windowWidth="21600" windowHeight="11385" xr2:uid="{BFE46DB1-BA3B-4CB7-B44C-BBE749A373D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,9 +126,6 @@
     <t>Gonad mass/GSI, histological analyses for some years</t>
   </si>
   <si>
-    <t>May not be publicly available prior to X year</t>
-  </si>
-  <si>
     <t>Japan</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -150,6 +147,10 @@
   </si>
   <si>
     <t>2013-present</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>May not be publicly available prior to 2001 year</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -517,7 +518,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -553,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -585,7 +586,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -624,7 +625,7 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -635,7 +636,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -646,7 +647,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -657,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -668,10 +669,10 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
         <v>29</v>
